--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Plxna1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H2">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I2">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J2">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.558130388920659</v>
+        <v>8.591717333333333</v>
       </c>
       <c r="N2">
-        <v>8.558130388920659</v>
+        <v>25.775152</v>
       </c>
       <c r="O2">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075156</v>
       </c>
       <c r="P2">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075157</v>
       </c>
       <c r="Q2">
-        <v>414.9506126875321</v>
+        <v>425.237787542048</v>
       </c>
       <c r="R2">
-        <v>414.9506126875321</v>
+        <v>3827.140087878432</v>
       </c>
       <c r="S2">
-        <v>0.063462431861375</v>
+        <v>0.06033774442996868</v>
       </c>
       <c r="T2">
-        <v>0.063462431861375</v>
+        <v>0.06033774442996868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H3">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I3">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J3">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.4790782736263</v>
+        <v>16.543524</v>
       </c>
       <c r="N3">
-        <v>16.4790782736263</v>
+        <v>49.630572</v>
       </c>
       <c r="O3">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355214</v>
       </c>
       <c r="P3">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355215</v>
       </c>
       <c r="Q3">
-        <v>799.0067123795518</v>
+        <v>818.8038864611281</v>
       </c>
       <c r="R3">
-        <v>799.0067123795518</v>
+        <v>7369.234978150152</v>
       </c>
       <c r="S3">
-        <v>0.1221998654556804</v>
+        <v>0.116181536747064</v>
       </c>
       <c r="T3">
-        <v>0.1221998654556804</v>
+        <v>0.116181536747064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H4">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I4">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J4">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.2285953032043</v>
+        <v>35.53801933333333</v>
       </c>
       <c r="N4">
-        <v>35.2285953032043</v>
+        <v>106.614058</v>
       </c>
       <c r="O4">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="P4">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="Q4">
-        <v>1708.098210809027</v>
+        <v>1758.915956918492</v>
       </c>
       <c r="R4">
-        <v>1708.098210809027</v>
+        <v>15830.24361226643</v>
       </c>
       <c r="S4">
-        <v>0.2612360676224192</v>
+        <v>0.2495757070315573</v>
       </c>
       <c r="T4">
-        <v>0.2612360676224192</v>
+        <v>0.2495757070315573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H5">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I5">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J5">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.8380806069547</v>
+        <v>25.92369633333334</v>
       </c>
       <c r="N5">
-        <v>23.8380806069547</v>
+        <v>77.771089</v>
       </c>
       <c r="O5">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="P5">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="Q5">
-        <v>1155.816247665064</v>
+        <v>1283.065404273686</v>
       </c>
       <c r="R5">
-        <v>1155.816247665064</v>
+        <v>11547.58863846317</v>
       </c>
       <c r="S5">
-        <v>0.1767702170305006</v>
+        <v>0.1820564275284332</v>
       </c>
       <c r="T5">
-        <v>0.1767702170305006</v>
+        <v>0.1820564275284332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H6">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I6">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J6">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.0688982195683</v>
+        <v>14.94147133333333</v>
       </c>
       <c r="N6">
-        <v>13.0688982195683</v>
+        <v>44.824414</v>
       </c>
       <c r="O6">
-        <v>0.1344913446340794</v>
+        <v>0.1471509021617218</v>
       </c>
       <c r="P6">
-        <v>0.1344913446340794</v>
+        <v>0.1471509021617218</v>
       </c>
       <c r="Q6">
-        <v>633.660282902607</v>
+        <v>739.512016737236</v>
       </c>
       <c r="R6">
-        <v>633.660282902607</v>
+        <v>6655.608150635125</v>
       </c>
       <c r="S6">
-        <v>0.09691182829328207</v>
+        <v>0.1049306726166003</v>
       </c>
       <c r="T6">
-        <v>0.09691182829328207</v>
+        <v>0.1049306726166003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H7">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I7">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J7">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.558130388920659</v>
+        <v>8.591717333333333</v>
       </c>
       <c r="N7">
-        <v>8.558130388920659</v>
+        <v>25.775152</v>
       </c>
       <c r="O7">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075156</v>
       </c>
       <c r="P7">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075157</v>
       </c>
       <c r="Q7">
-        <v>109.7065830746437</v>
+        <v>110.5741820561387</v>
       </c>
       <c r="R7">
-        <v>109.7065830746437</v>
+        <v>995.167638505248</v>
       </c>
       <c r="S7">
-        <v>0.01677849445269188</v>
+        <v>0.01568956695034166</v>
       </c>
       <c r="T7">
-        <v>0.01677849445269188</v>
+        <v>0.01568956695034166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H8">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I8">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J8">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.4790782736263</v>
+        <v>16.543524</v>
       </c>
       <c r="N8">
-        <v>16.4790782736263</v>
+        <v>49.630572</v>
       </c>
       <c r="O8">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355214</v>
       </c>
       <c r="P8">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355215</v>
       </c>
       <c r="Q8">
-        <v>211.245130356929</v>
+        <v>212.912804699592</v>
       </c>
       <c r="R8">
-        <v>211.245130356929</v>
+        <v>1916.215242296328</v>
       </c>
       <c r="S8">
-        <v>0.03230777177191212</v>
+        <v>0.03021057575830212</v>
       </c>
       <c r="T8">
-        <v>0.03230777177191212</v>
+        <v>0.03021057575830211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H9">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I9">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J9">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.2285953032043</v>
+        <v>35.53801933333333</v>
       </c>
       <c r="N9">
-        <v>35.2285953032043</v>
+        <v>106.614058</v>
       </c>
       <c r="O9">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="P9">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="Q9">
-        <v>451.5949911486931</v>
+        <v>457.3692624212547</v>
       </c>
       <c r="R9">
-        <v>451.5949911486931</v>
+        <v>4116.323361791292</v>
       </c>
       <c r="S9">
-        <v>0.0690668129614098</v>
+        <v>0.06489693643081558</v>
       </c>
       <c r="T9">
-        <v>0.0690668129614098</v>
+        <v>0.06489693643081557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H10">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I10">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J10">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.8380806069547</v>
+        <v>25.92369633333334</v>
       </c>
       <c r="N10">
-        <v>23.8380806069547</v>
+        <v>77.771089</v>
       </c>
       <c r="O10">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="P10">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="Q10">
-        <v>305.5801035507189</v>
+        <v>333.6342906451207</v>
       </c>
       <c r="R10">
-        <v>305.5801035507189</v>
+        <v>3002.708615806086</v>
       </c>
       <c r="S10">
-        <v>0.04673533646372203</v>
+        <v>0.04733996166798474</v>
       </c>
       <c r="T10">
-        <v>0.04673533646372203</v>
+        <v>0.04733996166798472</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H11">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I11">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J11">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.0688982195683</v>
+        <v>14.94147133333333</v>
       </c>
       <c r="N11">
-        <v>13.0688982195683</v>
+        <v>44.824414</v>
       </c>
       <c r="O11">
-        <v>0.1344913446340794</v>
+        <v>0.1471509021617218</v>
       </c>
       <c r="P11">
-        <v>0.1344913446340794</v>
+        <v>0.1471509021617218</v>
       </c>
       <c r="Q11">
-        <v>167.5300682582794</v>
+        <v>192.2946143710707</v>
       </c>
       <c r="R11">
-        <v>167.5300682582794</v>
+        <v>1730.651529339636</v>
       </c>
       <c r="S11">
-        <v>0.02562200227326477</v>
+        <v>0.02728502413730992</v>
       </c>
       <c r="T11">
-        <v>0.02562200227326477</v>
+        <v>0.02728502413730992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>5.98248508901319</v>
+        <v>0.09074</v>
       </c>
       <c r="H12">
-        <v>5.98248508901319</v>
+        <v>0.27222</v>
       </c>
       <c r="I12">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="J12">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.558130388920659</v>
+        <v>8.591717333333333</v>
       </c>
       <c r="N12">
-        <v>8.558130388920659</v>
+        <v>25.775152</v>
       </c>
       <c r="O12">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075156</v>
       </c>
       <c r="P12">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075157</v>
       </c>
       <c r="Q12">
-        <v>51.1988874415485</v>
+        <v>0.7796124308266666</v>
       </c>
       <c r="R12">
-        <v>51.1988874415485</v>
+        <v>7.01651187744</v>
       </c>
       <c r="S12">
-        <v>0.007830343675342905</v>
+        <v>0.0001106205915460763</v>
       </c>
       <c r="T12">
-        <v>0.007830343675342905</v>
+        <v>0.0001106205915460763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>5.98248508901319</v>
+        <v>0.09074</v>
       </c>
       <c r="H13">
-        <v>5.98248508901319</v>
+        <v>0.27222</v>
       </c>
       <c r="I13">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="J13">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4790782736263</v>
+        <v>16.543524</v>
       </c>
       <c r="N13">
-        <v>16.4790782736263</v>
+        <v>49.630572</v>
       </c>
       <c r="O13">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355214</v>
       </c>
       <c r="P13">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355215</v>
       </c>
       <c r="Q13">
-        <v>98.58584005265057</v>
+        <v>1.50115936776</v>
       </c>
       <c r="R13">
-        <v>98.58584005265057</v>
+        <v>13.51043430984</v>
       </c>
       <c r="S13">
-        <v>0.01507769109272059</v>
+        <v>0.0002130021671030352</v>
       </c>
       <c r="T13">
-        <v>0.01507769109272059</v>
+        <v>0.0002130021671030352</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>5.98248508901319</v>
+        <v>0.09074</v>
       </c>
       <c r="H14">
-        <v>5.98248508901319</v>
+        <v>0.27222</v>
       </c>
       <c r="I14">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="J14">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.2285953032043</v>
+        <v>35.53801933333333</v>
       </c>
       <c r="N14">
-        <v>35.2285953032043</v>
+        <v>106.614058</v>
       </c>
       <c r="O14">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="P14">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="Q14">
-        <v>210.7545461082998</v>
+        <v>3.224719874306667</v>
       </c>
       <c r="R14">
-        <v>210.7545461082998</v>
+        <v>29.02247886876</v>
       </c>
       <c r="S14">
-        <v>0.03223274195270243</v>
+        <v>0.0004575612265288557</v>
       </c>
       <c r="T14">
-        <v>0.03223274195270243</v>
+        <v>0.0004575612265288556</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>5.98248508901319</v>
+        <v>0.09074</v>
       </c>
       <c r="H15">
-        <v>5.98248508901319</v>
+        <v>0.27222</v>
       </c>
       <c r="I15">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="J15">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.8380806069547</v>
+        <v>25.92369633333334</v>
       </c>
       <c r="N15">
-        <v>23.8380806069547</v>
+        <v>77.771089</v>
       </c>
       <c r="O15">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="P15">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="Q15">
-        <v>142.610961781801</v>
+        <v>2.352316205286667</v>
       </c>
       <c r="R15">
-        <v>142.610961781801</v>
+        <v>21.17084584758</v>
       </c>
       <c r="S15">
-        <v>0.02181088102544363</v>
+        <v>0.0003337743215001234</v>
       </c>
       <c r="T15">
-        <v>0.02181088102544363</v>
+        <v>0.0003337743215001233</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.09074</v>
+      </c>
+      <c r="H16">
+        <v>0.27222</v>
+      </c>
+      <c r="I16">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J16">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.94147133333333</v>
+      </c>
+      <c r="N16">
+        <v>44.824414</v>
+      </c>
+      <c r="O16">
+        <v>0.1471509021617218</v>
+      </c>
+      <c r="P16">
+        <v>0.1471509021617218</v>
+      </c>
+      <c r="Q16">
+        <v>1.355789108786667</v>
+      </c>
+      <c r="R16">
+        <v>12.20210197908</v>
+      </c>
+      <c r="S16">
+        <v>0.0001923753230392676</v>
+      </c>
+      <c r="T16">
+        <v>0.0001923753230392676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.195726</v>
+      </c>
+      <c r="I17">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J17">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.591717333333333</v>
+      </c>
+      <c r="N17">
+        <v>25.775152</v>
+      </c>
+      <c r="O17">
+        <v>0.08461542565075156</v>
+      </c>
+      <c r="P17">
+        <v>0.08461542565075157</v>
+      </c>
+      <c r="Q17">
+        <v>3.424446600039111</v>
+      </c>
+      <c r="R17">
+        <v>30.820019400352</v>
+      </c>
+      <c r="S17">
+        <v>0.0004859008061385043</v>
+      </c>
+      <c r="T17">
+        <v>0.0004859008061385041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.195726</v>
+      </c>
+      <c r="I18">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J18">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>16.543524</v>
+      </c>
+      <c r="N18">
+        <v>49.630572</v>
+      </c>
+      <c r="O18">
+        <v>0.1629286987355214</v>
+      </c>
+      <c r="P18">
+        <v>0.1629286987355215</v>
+      </c>
+      <c r="Q18">
+        <v>6.593840592808001</v>
+      </c>
+      <c r="R18">
+        <v>59.344565335272</v>
+      </c>
+      <c r="S18">
+        <v>0.0009356117451379173</v>
+      </c>
+      <c r="T18">
+        <v>0.0009356117451379172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.195726</v>
+      </c>
+      <c r="I19">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J19">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>35.53801933333333</v>
+      </c>
+      <c r="N19">
+        <v>106.614058</v>
+      </c>
+      <c r="O19">
+        <v>0.3499957594051789</v>
+      </c>
+      <c r="P19">
+        <v>0.3499957594051789</v>
+      </c>
+      <c r="Q19">
+        <v>14.16457790178978</v>
+      </c>
+      <c r="R19">
+        <v>127.481201116108</v>
+      </c>
+      <c r="S19">
+        <v>0.00200983709923019</v>
+      </c>
+      <c r="T19">
+        <v>0.00200983709923019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.195726</v>
+      </c>
+      <c r="I20">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J20">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>25.92369633333334</v>
+      </c>
+      <c r="N20">
+        <v>77.771089</v>
+      </c>
+      <c r="O20">
+        <v>0.2553092140468263</v>
+      </c>
+      <c r="P20">
+        <v>0.2553092140468263</v>
+      </c>
+      <c r="Q20">
+        <v>10.33254590729045</v>
+      </c>
+      <c r="R20">
+        <v>92.99291316561401</v>
+      </c>
+      <c r="S20">
+        <v>0.001466103278047376</v>
+      </c>
+      <c r="T20">
+        <v>0.001466103278047375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.195726</v>
+      </c>
+      <c r="I21">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J21">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.94147133333333</v>
+      </c>
+      <c r="N21">
+        <v>44.824414</v>
+      </c>
+      <c r="O21">
+        <v>0.1471509021617218</v>
+      </c>
+      <c r="P21">
+        <v>0.1471509021617218</v>
+      </c>
+      <c r="Q21">
+        <v>5.955301917173778</v>
+      </c>
+      <c r="R21">
+        <v>53.59771725456401</v>
+      </c>
+      <c r="S21">
+        <v>0.0008450083591082627</v>
+      </c>
+      <c r="T21">
+        <v>0.0008450083591082627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.555354</v>
+      </c>
+      <c r="H22">
+        <v>19.666062</v>
+      </c>
+      <c r="I22">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J22">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.591717333333333</v>
+      </c>
+      <c r="N22">
+        <v>25.775152</v>
+      </c>
+      <c r="O22">
+        <v>0.08461542565075156</v>
+      </c>
+      <c r="P22">
+        <v>0.08461542565075157</v>
+      </c>
+      <c r="Q22">
+        <v>56.32174858793601</v>
+      </c>
+      <c r="R22">
+        <v>506.895737291424</v>
+      </c>
+      <c r="S22">
+        <v>0.007991592872756638</v>
+      </c>
+      <c r="T22">
+        <v>0.007991592872756638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.555354</v>
+      </c>
+      <c r="H23">
+        <v>19.666062</v>
+      </c>
+      <c r="I23">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J23">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.543524</v>
+      </c>
+      <c r="N23">
+        <v>49.630572</v>
+      </c>
+      <c r="O23">
+        <v>0.1629286987355214</v>
+      </c>
+      <c r="P23">
+        <v>0.1629286987355215</v>
+      </c>
+      <c r="Q23">
+        <v>108.448656227496</v>
+      </c>
+      <c r="R23">
+        <v>976.037906047464</v>
+      </c>
+      <c r="S23">
+        <v>0.01538797231791437</v>
+      </c>
+      <c r="T23">
+        <v>0.01538797231791437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>5.98248508901319</v>
-      </c>
-      <c r="H16">
-        <v>5.98248508901319</v>
-      </c>
-      <c r="I16">
-        <v>0.08890917181374212</v>
-      </c>
-      <c r="J16">
-        <v>0.08890917181374212</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.0688982195683</v>
-      </c>
-      <c r="N16">
-        <v>13.0688982195683</v>
-      </c>
-      <c r="O16">
-        <v>0.1344913446340794</v>
-      </c>
-      <c r="P16">
-        <v>0.1344913446340794</v>
-      </c>
-      <c r="Q16">
-        <v>78.18448872839839</v>
-      </c>
-      <c r="R16">
-        <v>78.18448872839839</v>
-      </c>
-      <c r="S16">
-        <v>0.01195751406753257</v>
-      </c>
-      <c r="T16">
-        <v>0.01195751406753257</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.555354</v>
+      </c>
+      <c r="H24">
+        <v>19.666062</v>
+      </c>
+      <c r="I24">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J24">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>35.53801933333333</v>
+      </c>
+      <c r="N24">
+        <v>106.614058</v>
+      </c>
+      <c r="O24">
+        <v>0.3499957594051789</v>
+      </c>
+      <c r="P24">
+        <v>0.3499957594051789</v>
+      </c>
+      <c r="Q24">
+        <v>232.964297188844</v>
+      </c>
+      <c r="R24">
+        <v>2096.678674699596</v>
+      </c>
+      <c r="S24">
+        <v>0.03305571761704695</v>
+      </c>
+      <c r="T24">
+        <v>0.03305571761704695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.555354</v>
+      </c>
+      <c r="H25">
+        <v>19.666062</v>
+      </c>
+      <c r="I25">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J25">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.92369633333334</v>
+      </c>
+      <c r="N25">
+        <v>77.771089</v>
+      </c>
+      <c r="O25">
+        <v>0.2553092140468263</v>
+      </c>
+      <c r="P25">
+        <v>0.2553092140468263</v>
+      </c>
+      <c r="Q25">
+        <v>169.939006453502</v>
+      </c>
+      <c r="R25">
+        <v>1529.451058081518</v>
+      </c>
+      <c r="S25">
+        <v>0.02411294725086092</v>
+      </c>
+      <c r="T25">
+        <v>0.02411294725086091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.555354</v>
+      </c>
+      <c r="H26">
+        <v>19.666062</v>
+      </c>
+      <c r="I26">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J26">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.94147133333333</v>
+      </c>
+      <c r="N26">
+        <v>44.824414</v>
+      </c>
+      <c r="O26">
+        <v>0.1471509021617218</v>
+      </c>
+      <c r="P26">
+        <v>0.1471509021617218</v>
+      </c>
+      <c r="Q26">
+        <v>97.94663387085201</v>
+      </c>
+      <c r="R26">
+        <v>881.5197048376681</v>
+      </c>
+      <c r="S26">
+        <v>0.01389782172566404</v>
+      </c>
+      <c r="T26">
+        <v>0.01389782172566404</v>
       </c>
     </row>
   </sheetData>
